--- a/HybridActiTimeProject/data/ActiTimeTestData.xlsx
+++ b/HybridActiTimeProject/data/ActiTimeTestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="managercreds" sheetId="4" r:id="rId3"/>
+    <sheet name="customer&amp;projectcreds" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Password</t>
   </si>
@@ -55,14 +56,58 @@
   </si>
   <si>
     <t>username</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
+  </si>
+  <si>
+    <t>manager_01</t>
+  </si>
+  <si>
+    <t>manager123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohit </t>
+  </si>
+  <si>
+    <t>Shrama</t>
+  </si>
+  <si>
+    <t>CUSTOMER_NAME</t>
+  </si>
+  <si>
+    <t>PROJECT_NAME</t>
+  </si>
+  <si>
+    <t>Yes Bank</t>
+  </si>
+  <si>
+    <t>Yes Bank Online</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,11 +156,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -512,12 +559,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>